--- a/OUTPUT/output.xlsx
+++ b/OUTPUT/output.xlsx
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -878,7 +878,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -894,7 +894,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -998,7 +998,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:2">
